--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\Project\Github\LethalTrigger\Documentations\招式表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9D6D5-A6CF-4D59-95C4-03B4024C8AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B9023-74A1-48F5-8A01-EDF35CB5AB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{49B80EE0-E1DB-4F14-8037-15A7920976A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{49B80EE0-E1DB-4F14-8037-15A7920976A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Creno" sheetId="1" r:id="rId1"/>
-    <sheet name="Natalia" sheetId="3" r:id="rId2"/>
+    <sheet name="Universal" sheetId="4" r:id="rId1"/>
+    <sheet name="Creno" sheetId="1" r:id="rId2"/>
+    <sheet name="Natalia" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="175">
   <si>
     <t>近身招式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>側身右腳踢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>補充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>擊中轉跳到Fall動畫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斜下突刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前突刺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空中擊墜（燃晶：擊墜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向下集束砲（燃晶：向下聚束砲）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,14 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向後集束砲（燃晶：向後聚束砲）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿越，（燃晶：集墜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彈刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,6 +524,218 @@
   </si>
   <si>
     <t>摔技，第三段擊飛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜下突進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃晶：向後聚束砲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿越，擊飛，空中擊墜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊倒，空中擊墜（燃晶：擊墜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+16+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵直，空中擊倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵直，空中擊飛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>側身踢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受傷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幀數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上（前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下（前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳躍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前前歸位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃晶釋放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDFR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前下前R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑釁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加燃晶槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗氣力值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +760,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,12 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -694,8 +883,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,403 +1220,816 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0319D8CD-9DBA-44C6-9B18-45F04833B632}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3E2E8-D00E-4669-841D-6F2369CC97DC}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="20.625" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A23:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0319D8CD-9DBA-44C6-9B18-45F04833B632}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="8">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="8">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="8">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="8">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="8">
+        <v>20</v>
+      </c>
+      <c r="F23" s="8">
+        <v>6</v>
+      </c>
+      <c r="G23" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="8">
+        <v>30</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1422,393 +2045,570 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA967B6E-76A9-4E5D-9BCC-EDEABFAA62BA}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="13" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="8">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E5" s="8">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G5" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G6" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="8">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="G11" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="8">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="8">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="8">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8">
+        <v>11</v>
+      </c>
+      <c r="G23" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="D27" s="9" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\Project\Github\LethalTrigger\Documentations\招式表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC48F2-6911-4107-96BD-F48DEE7BF380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A8672-F160-4366-B622-58AD48557CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{49B80EE0-E1DB-4F14-8037-15A7920976A5}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{49B80EE0-E1DB-4F14-8037-15A7920976A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
   <si>
     <t>近身招式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,6 +820,18 @@
   </si>
   <si>
     <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(F)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -842,6 +854,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="7">
@@ -948,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,18 +995,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1000,9 +1007,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1010,6 +1014,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,349 +1350,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3E2E8-D00E-4669-841D-6F2369CC97DC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="10.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>166</v>
+      <c r="E24" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1691,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0319D8CD-9DBA-44C6-9B18-45F04833B632}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1735,16 +1757,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1768,6 +1790,9 @@
       <c r="G3" s="4">
         <v>9</v>
       </c>
+      <c r="H3" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1791,6 +1816,9 @@
       <c r="G4" s="4">
         <v>15</v>
       </c>
+      <c r="H4" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1814,6 +1842,9 @@
       <c r="G5" s="4">
         <v>26</v>
       </c>
+      <c r="H5" s="21" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1837,6 +1868,9 @@
       <c r="G6" s="4">
         <v>26</v>
       </c>
+      <c r="H6" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1860,6 +1894,9 @@
       <c r="G7" s="4">
         <v>22</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1883,18 +1920,21 @@
       <c r="G8" s="4">
         <v>28</v>
       </c>
+      <c r="H8" s="8" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1918,6 +1958,9 @@
       <c r="G10" s="4">
         <v>16</v>
       </c>
+      <c r="H10" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1941,6 +1984,9 @@
       <c r="G11" s="4">
         <v>34</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1964,6 +2010,9 @@
       <c r="G12" s="4">
         <v>38</v>
       </c>
+      <c r="H12" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1987,6 +2036,9 @@
       <c r="G13" s="4">
         <v>28</v>
       </c>
+      <c r="H13" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -2035,16 +2087,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -2116,16 +2168,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -2220,16 +2272,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -2334,16 +2386,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2461,16 +2513,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2611,16 +2663,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -2692,16 +2744,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -2796,16 +2848,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\Project\Github\LethalTrigger\Documentations\招式表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A8672-F160-4366-B622-58AD48557CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE0655-799F-4588-9E4C-37FB464338DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{49B80EE0-E1DB-4F14-8037-15A7920976A5}"/>
   </bookViews>
@@ -1016,6 +1016,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1029,9 +1032,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,14 +1386,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1517,14 +1517,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1577,14 +1577,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
@@ -1685,14 +1685,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1714,7 +1714,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1757,16 +1757,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1840,9 +1840,9 @@
         <v>6</v>
       </c>
       <c r="G5" s="4">
-        <v>26</v>
-      </c>
-      <c r="H5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         <v>73</v>
       </c>
       <c r="E8" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
         <v>7</v>
@@ -1925,16 +1925,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1950,7 +1950,7 @@
         <v>126</v>
       </c>
       <c r="E10" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="4">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>197</v>
@@ -2002,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4">
         <v>6</v>
@@ -2028,7 +2028,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4">
         <v>6</v>
@@ -2087,16 +2087,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -2168,16 +2168,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -2272,16 +2272,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -2386,16 +2386,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2513,16 +2513,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2663,16 +2663,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -2744,16 +2744,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -2848,16 +2848,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\Project\Github\LethalTrigger\Documentations\招式表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE0655-799F-4588-9E4C-37FB464338DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E889C2-F49A-438A-94E3-18EA7EE75DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{49B80EE0-E1DB-4F14-8037-15A7920976A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{49B80EE0-E1DB-4F14-8037-15A7920976A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="4" r:id="rId1"/>
@@ -799,10 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40+24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6(12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,6 +828,10 @@
   </si>
   <si>
     <t>V(F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3E2E8-D00E-4669-841D-6F2369CC97DC}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>158</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>181</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0319D8CD-9DBA-44C6-9B18-45F04833B632}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1791,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,7 +2037,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2054,13 +2054,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F14" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G14" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="4">
         <v>22</v>
@@ -2135,10 +2135,10 @@
         <v>96</v>
       </c>
       <c r="E18" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="4">
         <v>28</v>
@@ -2158,10 +2158,10 @@
         <v>98</v>
       </c>
       <c r="E19" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G19" s="4">
         <v>44</v>
@@ -2193,13 +2193,13 @@
         <v>18</v>
       </c>
       <c r="E21" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2607,10 +2607,10 @@
         <v>109</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G12" s="4">
         <v>42</v>
@@ -2691,7 +2691,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="4">
         <v>24</v>
@@ -2714,7 +2714,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="4">
         <v>28</v>
@@ -2737,7 +2737,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="4">
         <v>20</v>

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -692,7 +692,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,7 +732,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFD428"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD428"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -797,7 +803,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -886,6 +892,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,7 +950,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -2015,7 +2025,7 @@
   <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2345,13 +2355,13 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>184</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -2368,13 +2378,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -2391,13 +2401,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2426,13 +2436,13 @@
       <c r="H19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -2449,13 +2459,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -2472,13 +2482,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -2495,13 +2505,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>197</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -2530,13 +2540,13 @@
       <c r="H24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -2544,13 +2554,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>203</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -2558,13 +2568,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="10" t="s">

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Creno" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Natalia" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sergio" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="281">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -658,6 +659,250 @@
   </si>
   <si>
     <t xml:space="preserve">32/.8，42/1，42/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左寸拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W派生M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左衝拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前踩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">護拳衝撞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僵直，穿越，空中擊倒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向下左刺拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右衝拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上挑右勾拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下揍右重拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向下右直拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向前熱砲（燃晶：大範圍熱砲）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前衝向後熱砲（燃晶：大範圍熱砲）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穿越，擊倒（燃晶：擊飛）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向下震地砲（燃晶：廣域震地砲）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擊倒（燃晶：擊倒）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向下熱砲（燃晶：向下大範圍熱砲）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擊飛（燃晶：擊飛，空中擊墜）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">護拳姿勢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彈刀，僵直</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前下前M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右手抓起</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摔技，擊墜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36(抓空)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDFMt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前下前M抓中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接續抓起轉身重摔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動畫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動畫：抓起&gt;轉身&gt;重摔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seFDFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配合以上動畫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被抓起重摔的動畫</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">配合以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">被控角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">動畫</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">躍起抓住</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空中摔技，擊墜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52(抓空)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDFWt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前下前W抓中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接續抓住重地摔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動畫：空中抓住&gt;下墜&gt;重摔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seFDFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被抓住重地摔的動畫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配合以上的被控角色動畫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDFWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前下前W派生S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">燃晶：熱砲擊墜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摔技派生，擊墜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以空中抓中的動畫接續向下爆炸擊墜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDFMDFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前下前M派生下前M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右手抓起連續拳（7段）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摔技派生，擊倒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接續抓起&gt;左手兩拳&gt;右手摔地&gt;左右交替四拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seFDFMDFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被抓起連續拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下墜右重拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下前S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">燃晶：巨大能量熱砲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破防，擊飛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/.7，22/.75，72/.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/.8，28/.85，42/.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/.85，36/1，36/1</t>
   </si>
 </sst>
 </file>
@@ -668,7 +913,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -691,8 +936,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,13 +983,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFFFD428"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD428"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -892,12 +1137,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -954,7 +1199,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
-      <rgbColor rgb="FFFFD428"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1348,7 +1593,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1362,7 +1607,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="13" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>70</v>
       </c>
@@ -1400,7 +1645,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>71</v>
       </c>
@@ -1426,7 +1671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -1452,7 +1697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
@@ -1478,7 +1723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>82</v>
       </c>
@@ -1504,7 +1749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>86</v>
       </c>
@@ -1530,7 +1775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>89</v>
       </c>
@@ -1556,7 +1801,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
         <v>94</v>
       </c>
@@ -1568,7 +1813,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>95</v>
       </c>
@@ -1594,7 +1839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>98</v>
       </c>
@@ -1620,7 +1865,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>102</v>
       </c>
@@ -1646,7 +1891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
@@ -1672,7 +1917,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>108</v>
       </c>
@@ -1695,7 +1940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>113</v>
       </c>
@@ -1718,7 +1963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
         <v>116</v>
       </c>
@@ -1730,7 +1975,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>117</v>
       </c>
@@ -1753,7 +1998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>121</v>
       </c>
@@ -1776,7 +2021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>125</v>
       </c>
@@ -1799,7 +2044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
         <v>129</v>
       </c>
@@ -1811,7 +2056,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>130</v>
       </c>
@@ -1834,7 +2079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>133</v>
       </c>
@@ -1857,7 +2102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>137</v>
       </c>
@@ -1880,7 +2125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>140</v>
       </c>
@@ -1903,7 +2148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
         <v>143</v>
       </c>
@@ -1915,7 +2160,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>144</v>
       </c>
@@ -1929,7 +2174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
@@ -1943,7 +2188,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>151</v>
       </c>
@@ -2028,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2174,13 +2419,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -2278,13 +2523,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>176</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -2301,13 +2546,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -2324,13 +2569,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>183</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -2359,13 +2604,13 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -2382,13 +2627,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -2405,13 +2650,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2440,13 +2685,13 @@
       <c r="H19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -2463,13 +2708,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>193</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -2486,13 +2731,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -2509,13 +2754,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>197</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -2544,13 +2789,13 @@
       <c r="H24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>199</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -2558,13 +2803,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>203</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -2572,20 +2817,20 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="28" s="23" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="22" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
         <v>154</v>
       </c>
@@ -2597,7 +2842,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" s="23" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="22" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>155</v>
@@ -2613,7 +2858,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" s="23" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="22" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
         <v>158</v>
@@ -2629,7 +2874,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" s="23" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="22" customFormat="true" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
         <v>160</v>
@@ -2662,4 +2907,734 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="16.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="30.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="30.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="11" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="37.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A32:H32"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="336">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">武器</t>
   </si>
   <si>
-    <t xml:space="preserve">16/.85，20/.9，24/.95</t>
+    <t xml:space="preserve">14/.85，18/.9，22/.95</t>
   </si>
   <si>
     <t xml:space="preserve">燃晶</t>
   </si>
   <si>
-    <t xml:space="preserve">24/.85，34/1，34/1</t>
+    <t xml:space="preserve">22/.85，30/1，30/1</t>
   </si>
   <si>
     <t xml:space="preserve">肩撞（貼貼）</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">18+24+28</t>
   </si>
   <si>
-    <t xml:space="preserve">8+8+12</t>
+    <t xml:space="preserve">8+8+8</t>
   </si>
   <si>
     <t xml:space="preserve">FFWN</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">擊倒（燃晶：擊飛）</t>
   </si>
   <si>
-    <t xml:space="preserve">8(30)</t>
+    <t xml:space="preserve">8(16)</t>
   </si>
   <si>
     <t xml:space="preserve">向上集束砲（燃晶：向上聚束砲）</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">破防，擊飛</t>
   </si>
   <si>
-    <t xml:space="preserve">18/.7，22/.75，72/.25</t>
+    <t xml:space="preserve">16/.7，22/.75，68/.25</t>
   </si>
   <si>
     <t xml:space="preserve">20/.8，28/.85，42/.8</t>
   </si>
   <si>
-    <t xml:space="preserve">30/.85，36/1，36/1</t>
+    <t xml:space="preserve">24/.85，36/1，36/1</t>
   </si>
   <si>
     <t xml:space="preserve">左肘擊</t>
@@ -1158,6 +1158,15 @@
   </si>
   <si>
     <t xml:space="preserve">4*8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/.75，16/.8，22/.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/.85，20/.9，24/.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/.85，34/1，34/1</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1872,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2562,7 +2571,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2831,7 +2840,7 @@
         <v>181</v>
       </c>
       <c r="G12" s="11" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -3248,8 +3257,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3997,7 +4006,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4662,7 +4671,7 @@
         <v>158</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>159</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4673,7 +4682,7 @@
         <v>158</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>161</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4684,7 +4693,7 @@
         <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>163</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="334">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">24/.7，36/.8，64/.75</t>
   </si>
   <si>
-    <t xml:space="preserve">32/.8，42/1，42/1</t>
+    <t xml:space="preserve">32/.75，38/1，38/1</t>
   </si>
   <si>
     <t xml:space="preserve">左寸拳</t>
@@ -759,12 +759,6 @@
   </si>
   <si>
     <t xml:space="preserve">擊飛（燃晶：擊飛，空中擊墜）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">護拳姿勢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">彈刀，僵直</t>
   </si>
   <si>
     <t xml:space="preserve">FDFM</t>
@@ -1504,7 +1498,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,7 +1865,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -2571,7 +2565,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3255,10 +3249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3647,59 +3641,62 @@
     </row>
     <row r="19" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F19" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" s="11" t="n">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" s="11" t="n">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>251</v>
+        <v>186</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>185</v>
@@ -3714,67 +3711,67 @@
         <v>186</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>186</v>
+        <v>18</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>3</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>263</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="E23" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="F23" s="11" t="n">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>262</v>
+        <v>186</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>185</v>
@@ -3789,204 +3786,179 @@
         <v>186</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="24" t="s">
         <v>268</v>
       </c>
+      <c r="B25" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="D25" s="10" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="E25" s="11" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>186</v>
+      <c r="G25" s="11" t="n">
+        <v>36</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="A26" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="C27" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>281</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>269</v>
+        <v>25</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F30" s="11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F31" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G31" s="11" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A31:H31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4065,7 +4037,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>73</v>
@@ -4111,7 +4083,7 @@
         <v>167</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>85</v>
@@ -4128,13 +4100,13 @@
     </row>
     <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>73</v>
@@ -4155,10 +4127,10 @@
         <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
@@ -4176,16 +4148,16 @@
     </row>
     <row r="8" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>30</v>
@@ -4206,7 +4178,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>73</v>
@@ -4241,7 +4213,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>73</v>
@@ -4261,10 +4233,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
@@ -4287,7 +4259,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>97</v>
@@ -4310,7 +4282,7 @@
         <v>175</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>25</v>
@@ -4333,7 +4305,7 @@
         <v>106</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>85</v>
@@ -4350,16 +4322,16 @@
     </row>
     <row r="16" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>309</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>30</v>
@@ -4379,7 +4351,7 @@
         <v>114</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>97</v>
@@ -4402,7 +4374,7 @@
         <v>189</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>136</v>
@@ -4437,10 +4409,10 @@
         <v>117</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>22</v>
@@ -4460,10 +4432,10 @@
         <v>122</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>24</v>
@@ -4483,10 +4455,10 @@
         <v>126</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>24</v>
@@ -4518,10 +4490,10 @@
         <v>134</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E24" s="11" t="n">
         <v>16</v>
@@ -4541,10 +4513,10 @@
         <v>138</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>50</v>
@@ -4564,10 +4536,10 @@
         <v>141</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>50</v>
@@ -4596,27 +4568,27 @@
         <v>200</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E29" s="11" t="n">
         <v>4</v>
@@ -4630,22 +4602,22 @@
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>16</v>
@@ -4671,7 +4643,7 @@
         <v>158</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4682,7 +4654,7 @@
         <v>158</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4693,7 +4665,7 @@
         <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -1202,7 +1202,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,20 +1247,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
         <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1313,7 +1307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1406,10 +1400,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1498,7 +1488,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2565,7 +2555,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2839,13 +2829,13 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" s="20" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -2921,13 +2911,13 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>191</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -2944,13 +2934,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2967,13 +2957,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>196</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -3002,13 +2992,13 @@
       <c r="H20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>198</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -3025,13 +3015,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -3048,13 +3038,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>203</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3106,13 +3096,13 @@
       <c r="H25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3120,13 +3110,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>212</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3143,13 +3133,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>216</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -3252,7 +3242,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3304,13 +3294,13 @@
       <c r="H2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -3327,13 +3317,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="19" t="s">
         <v>226</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -3350,13 +3340,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>227</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -3373,37 +3363,37 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>229</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F6" s="11" t="n">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="19" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -3432,13 +3422,13 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="19" t="s">
         <v>231</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -3455,13 +3445,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="19" t="s">
         <v>232</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3478,13 +3468,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="19" t="s">
         <v>233</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -3501,13 +3491,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="19" t="s">
         <v>234</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -3741,10 +3731,10 @@
       <c r="A23" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>263</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3767,10 +3757,10 @@
       <c r="A24" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>266</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -3978,7 +3968,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4261,7 +4251,7 @@
       <c r="C13" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="11" t="n">

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="337">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">12/.8，18/.8，22/.85</t>
   </si>
   <si>
-    <t xml:space="preserve">24/.7，36/.8，64/.75</t>
+    <t xml:space="preserve">24/.7，36/.8，72/.5</t>
   </si>
   <si>
     <t xml:space="preserve">32/.75，38/1，38/1</t>
@@ -716,6 +716,9 @@
     <t xml:space="preserve">僵直，穿越，空中擊倒</t>
   </si>
   <si>
+    <t xml:space="preserve">4+10+16</t>
+  </si>
+  <si>
     <t xml:space="preserve">向下左刺拳</t>
   </si>
   <si>
@@ -728,7 +731,13 @@
     <t xml:space="preserve">下揍右重拳</t>
   </si>
   <si>
+    <t xml:space="preserve">破防，空中擊墜</t>
+  </si>
+  <si>
     <t xml:space="preserve">向下右直拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僵直，空中擊墜</t>
   </si>
   <si>
     <t xml:space="preserve">向前熱砲（燃晶：大範圍熱砲）</t>
@@ -920,10 +929,10 @@
     <t xml:space="preserve">破防，擊飛</t>
   </si>
   <si>
-    <t xml:space="preserve">16/.7，22/.75，68/.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/.8，28/.85，42/.8</t>
+    <t xml:space="preserve">16/.7，22/.7，68/.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/.8，28/.85，42/.6</t>
   </si>
   <si>
     <t xml:space="preserve">24/.85，36/1，36/1</t>
@@ -2554,8 +2563,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3241,8 +3250,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3375,8 +3384,8 @@
       <c r="D6" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="11" t="n">
-        <v>30</v>
+      <c r="E6" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="F6" s="11" t="n">
         <v>6</v>
@@ -3394,7 +3403,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>73</v>
@@ -3429,7 +3438,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>97</v>
@@ -3452,7 +3461,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>25</v>
@@ -3475,10 +3484,10 @@
         <v>175</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>42</v>
@@ -3498,10 +3507,10 @@
         <v>114</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>18</v>
@@ -3533,7 +3542,7 @@
         <v>117</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>192</v>
@@ -3542,7 +3551,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G14" s="11" t="n">
         <v>24</v>
@@ -3550,22 +3559,22 @@
     </row>
     <row r="15" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>28</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G15" s="11" t="n">
         <v>24</v>
@@ -3579,16 +3588,16 @@
         <v>122</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>18</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G16" s="11" t="n">
         <v>20</v>
@@ -3602,16 +3611,16 @@
         <v>126</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G17" s="11" t="n">
         <v>44</v>
@@ -3631,16 +3640,16 @@
     </row>
     <row r="19" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>12</v>
@@ -3649,18 +3658,18 @@
         <v>3</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>185</v>
@@ -3675,18 +3684,18 @@
         <v>186</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>185</v>
@@ -3701,7 +3710,7 @@
         <v>186</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3712,10 +3721,10 @@
         <v>145</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>18</v>
@@ -3724,18 +3733,18 @@
         <v>3</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>185</v>
@@ -3750,18 +3759,18 @@
         <v>186</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>185</v>
@@ -3776,21 +3785,21 @@
         <v>186</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>12</v>
@@ -3802,7 +3811,7 @@
         <v>36</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3819,36 +3828,36 @@
     </row>
     <row r="27" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>185</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3859,7 +3868,7 @@
         <v>149</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>25</v>
@@ -3876,16 +3885,16 @@
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>12</v>
@@ -3915,7 +3924,7 @@
         <v>158</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3926,7 +3935,7 @@
         <v>158</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3937,7 +3946,7 @@
         <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4027,7 +4036,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>73</v>
@@ -4073,7 +4082,7 @@
         <v>167</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>85</v>
@@ -4090,13 +4099,13 @@
     </row>
     <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>73</v>
@@ -4117,10 +4126,10 @@
         <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
@@ -4138,16 +4147,16 @@
     </row>
     <row r="8" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>30</v>
@@ -4168,7 +4177,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>73</v>
@@ -4203,7 +4212,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>73</v>
@@ -4223,10 +4232,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
@@ -4249,7 +4258,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>97</v>
@@ -4272,7 +4281,7 @@
         <v>175</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>25</v>
@@ -4295,7 +4304,7 @@
         <v>106</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>85</v>
@@ -4312,16 +4321,16 @@
     </row>
     <row r="16" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>30</v>
@@ -4341,7 +4350,7 @@
         <v>114</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>97</v>
@@ -4364,7 +4373,7 @@
         <v>189</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>136</v>
@@ -4399,10 +4408,10 @@
         <v>117</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>22</v>
@@ -4422,10 +4431,10 @@
         <v>122</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>24</v>
@@ -4445,10 +4454,10 @@
         <v>126</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>24</v>
@@ -4480,10 +4489,10 @@
         <v>134</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E24" s="11" t="n">
         <v>16</v>
@@ -4503,10 +4512,10 @@
         <v>138</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>50</v>
@@ -4526,10 +4535,10 @@
         <v>141</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>50</v>
@@ -4558,27 +4567,27 @@
         <v>200</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E29" s="11" t="n">
         <v>4</v>
@@ -4592,22 +4601,22 @@
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>16</v>
@@ -4633,7 +4642,7 @@
         <v>158</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4644,7 +4653,7 @@
         <v>158</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4655,7 +4664,7 @@
         <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="338">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">FS</t>
   </si>
   <si>
-    <t xml:space="preserve">前S</t>
+    <t xml:space="preserve">衝刺取消S</t>
   </si>
   <si>
     <t xml:space="preserve">前衝向後熱砲（燃晶：大範圍熱砲）</t>
   </si>
   <si>
-    <t xml:space="preserve">穿越，擊倒（燃晶：擊飛）</t>
+    <t xml:space="preserve">穿越，僵直（燃晶：擊飛）</t>
   </si>
   <si>
     <t xml:space="preserve">向下震地砲（燃晶：廣域震地砲）</t>
@@ -764,10 +764,13 @@
     <t xml:space="preserve">擊倒（燃晶：擊倒）</t>
   </si>
   <si>
+    <t xml:space="preserve">6(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">傷害為0.5倍，修正為.4/.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">向下熱砲（燃晶：向下大範圍熱砲）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">擊飛（燃晶：擊飛，空中擊墜）</t>
   </si>
   <si>
     <t xml:space="preserve">FDFM</t>
@@ -929,7 +932,7 @@
     <t xml:space="preserve">破防，擊飛</t>
   </si>
   <si>
-    <t xml:space="preserve">16/.7，22/.7，68/.25</t>
+    <t xml:space="preserve">16/.7，22/.7，64/.25</t>
   </si>
   <si>
     <t xml:space="preserve">22/.8，28/.85，42/.6</t>
@@ -2563,7 +2566,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -3250,8 +3253,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3571,7 +3574,7 @@
         <v>243</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>239</v>
@@ -3597,10 +3600,13 @@
         <v>18</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G16" s="11" t="n">
         <v>20</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3611,10 +3617,10 @@
         <v>126</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>24</v>
@@ -3640,16 +3646,16 @@
     </row>
     <row r="19" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>12</v>
@@ -3658,18 +3664,18 @@
         <v>3</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>185</v>
@@ -3684,18 +3690,18 @@
         <v>186</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>185</v>
@@ -3710,7 +3716,7 @@
         <v>186</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3721,10 +3727,10 @@
         <v>145</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>18</v>
@@ -3733,18 +3739,18 @@
         <v>3</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>185</v>
@@ -3759,18 +3765,18 @@
         <v>186</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>185</v>
@@ -3785,21 +3791,21 @@
         <v>186</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>12</v>
@@ -3811,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3828,36 +3834,36 @@
     </row>
     <row r="27" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>185</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3868,7 +3874,7 @@
         <v>149</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>25</v>
@@ -3885,16 +3891,16 @@
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>12</v>
@@ -3924,7 +3930,7 @@
         <v>158</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3935,7 +3941,7 @@
         <v>158</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3946,7 +3952,7 @@
         <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4036,7 +4042,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>73</v>
@@ -4082,7 +4088,7 @@
         <v>167</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>85</v>
@@ -4099,13 +4105,13 @@
     </row>
     <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>73</v>
@@ -4126,10 +4132,10 @@
         <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
@@ -4147,16 +4153,16 @@
     </row>
     <row r="8" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>30</v>
@@ -4177,7 +4183,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>73</v>
@@ -4212,7 +4218,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>73</v>
@@ -4232,10 +4238,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
@@ -4258,7 +4264,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>97</v>
@@ -4281,7 +4287,7 @@
         <v>175</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>25</v>
@@ -4304,7 +4310,7 @@
         <v>106</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>85</v>
@@ -4321,16 +4327,16 @@
     </row>
     <row r="16" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>30</v>
@@ -4350,7 +4356,7 @@
         <v>114</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>97</v>
@@ -4373,7 +4379,7 @@
         <v>189</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>136</v>
@@ -4408,10 +4414,10 @@
         <v>117</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>22</v>
@@ -4431,10 +4437,10 @@
         <v>122</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>24</v>
@@ -4454,10 +4460,10 @@
         <v>126</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>24</v>
@@ -4489,10 +4495,10 @@
         <v>134</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E24" s="11" t="n">
         <v>16</v>
@@ -4512,10 +4518,10 @@
         <v>138</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>50</v>
@@ -4535,10 +4541,10 @@
         <v>141</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>50</v>
@@ -4567,27 +4573,27 @@
         <v>200</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E29" s="11" t="n">
         <v>4</v>
@@ -4601,22 +4607,22 @@
     </row>
     <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>16</v>
@@ -4642,7 +4648,7 @@
         <v>158</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4653,7 +4659,7 @@
         <v>158</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4664,7 +4670,7 @@
         <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Documentations/招式表/招式表.xlsx
+++ b/Documentations/招式表/招式表.xlsx
@@ -785,7 +785,7 @@
     <t xml:space="preserve">摔技，擊墜</t>
   </si>
   <si>
-    <t xml:space="preserve">36(抓空)</t>
+    <t xml:space="preserve">18(抓空)</t>
   </si>
   <si>
     <t xml:space="preserve">FDFMt</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">空中摔技，擊墜</t>
   </si>
   <si>
-    <t xml:space="preserve">52(抓空)</t>
+    <t xml:space="preserve">26(抓空)</t>
   </si>
   <si>
     <t xml:space="preserve">FDFWt</t>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2567,7 +2567,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3254,7 +3254,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3538,13 +3538,13 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="19" t="s">
         <v>238</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -3561,13 +3561,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="19" t="s">
         <v>242</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -3584,13 +3584,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="19" t="s">
         <v>244</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -3610,13 +3610,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="19" t="s">
         <v>248</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -3645,13 +3645,13 @@
       <c r="H18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="19" t="s">
         <v>251</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -3668,13 +3668,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="19" t="s">
         <v>256</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -3694,13 +3694,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="19" t="s">
         <v>260</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -3733,7 +3733,7 @@
         <v>263</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F22" s="11" t="n">
         <v>3</v>
